--- a/Routing Table.xlsx
+++ b/Routing Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yairus/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yairus/ITQ/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B7D712-BD5D-0C4A-B4EB-D62C9A378CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67B003F-21C9-DC48-9BE0-CB80C8832205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{4BAA868A-6B0E-DB45-8F74-754800FD72C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="128">
   <si>
     <t>ISP</t>
   </si>
@@ -101,18 +101,6 @@
     <t>64.100.0.13</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
     <t>e0/1</t>
   </si>
   <si>
@@ -155,9 +143,6 @@
     <t>64.100.0.14</t>
   </si>
   <si>
-    <t>DS1</t>
-  </si>
-  <si>
     <t>Lo</t>
   </si>
   <si>
@@ -170,24 +155,9 @@
     <t>10.10.99.1</t>
   </si>
   <si>
-    <t>10.16.13.0</t>
-  </si>
-  <si>
     <t>255.255.255.255</t>
   </si>
   <si>
-    <t>10.16.23.0</t>
-  </si>
-  <si>
-    <t>10.16.33.0</t>
-  </si>
-  <si>
-    <t>10.16.43.0</t>
-  </si>
-  <si>
-    <t>Tun0</t>
-  </si>
-  <si>
     <t>Ton1</t>
   </si>
   <si>
@@ -203,12 +173,6 @@
     <t>shutdown</t>
   </si>
   <si>
-    <t>e0/2-</t>
-  </si>
-  <si>
-    <t>e0/3-</t>
-  </si>
-  <si>
     <t>Shotdown</t>
   </si>
   <si>
@@ -236,42 +200,24 @@
     <t>All</t>
   </si>
   <si>
-    <t>DS2</t>
-  </si>
-  <si>
     <t>ACC1</t>
   </si>
   <si>
     <t>ACC2</t>
   </si>
   <si>
-    <t>SVI10</t>
-  </si>
-  <si>
     <t>Access</t>
   </si>
   <si>
     <t>Connect to</t>
   </si>
   <si>
-    <t>PC1</t>
-  </si>
-  <si>
-    <t>PC2</t>
-  </si>
-  <si>
-    <t>Pc3</t>
-  </si>
-  <si>
     <t>Shutdown</t>
   </si>
   <si>
     <t>SW2</t>
   </si>
   <si>
-    <t>PC4</t>
-  </si>
-  <si>
     <t>DHCP</t>
   </si>
   <si>
@@ -287,27 +233,15 @@
     <t>10.11.1.1</t>
   </si>
   <si>
-    <t>10.11.10.4</t>
-  </si>
-  <si>
     <t>10.11.20.4</t>
   </si>
   <si>
-    <t>10.11.10.3</t>
-  </si>
-  <si>
     <t>10.11.20.3</t>
   </si>
   <si>
     <t>10.11.20.5</t>
   </si>
   <si>
-    <t>172.16.0.1</t>
-  </si>
-  <si>
-    <t>172.16.0.2</t>
-  </si>
-  <si>
     <t>172.16.1.1</t>
   </si>
   <si>
@@ -341,9 +275,6 @@
     <t>10.12.99.1</t>
   </si>
   <si>
-    <t>10.12.10.2</t>
-  </si>
-  <si>
     <t>10.12.20.2</t>
   </si>
   <si>
@@ -368,9 +299,6 @@
     <t>10.10.20.2</t>
   </si>
   <si>
-    <t>Beit-Sh</t>
-  </si>
-  <si>
     <t>TLV-Main</t>
   </si>
   <si>
@@ -389,9 +317,6 @@
     <t>10.11.20.7</t>
   </si>
   <si>
-    <t>10.10.10.2</t>
-  </si>
-  <si>
     <t>Block</t>
   </si>
   <si>
@@ -456,6 +381,45 @@
   </si>
   <si>
     <t>ALL</t>
+  </si>
+  <si>
+    <t>10.16.13.1</t>
+  </si>
+  <si>
+    <t>Vlan</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>e0/3, e1/0-3, e2/0-3</t>
+  </si>
+  <si>
+    <t>10.16.23.1</t>
+  </si>
+  <si>
+    <t>10.16.33.1</t>
+  </si>
+  <si>
+    <t>10.16.43.1</t>
+  </si>
+  <si>
+    <t>BSH</t>
+  </si>
+  <si>
+    <t>TLV-SEC</t>
+  </si>
+  <si>
+    <t>TLV-MAIN</t>
+  </si>
+  <si>
+    <t>IT-PC</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>USER3</t>
   </si>
 </sst>
 </file>
@@ -512,37 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +494,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE49EDD"/>
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -596,17 +560,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -624,17 +577,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -693,21 +635,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="thin">
@@ -725,41 +652,32 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
@@ -768,10 +686,56 @@
     <border>
       <left/>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color theme="1"/>
       </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color theme="1"/>
@@ -782,46 +746,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -829,12 +780,32 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2409,8 +2380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04707B77-7C60-7142-8A00-5BB4A986AC5C}">
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="T72" sqref="T72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2418,20 +2389,22 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="10"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="4"/>
     <col min="8" max="8" width="13.1640625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" customWidth="1"/>
     <col min="15" max="15" width="14.1640625" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
     <col min="17" max="17" width="15.1640625" customWidth="1"/>
     <col min="18" max="18" width="13.83203125" customWidth="1"/>
     <col min="20" max="20" width="11.83203125" customWidth="1"/>
+    <col min="23" max="23" width="11.83203125" customWidth="1"/>
     <col min="24" max="24" width="14.33203125" customWidth="1"/>
     <col min="25" max="25" width="13.83203125" customWidth="1"/>
     <col min="27" max="27" width="11.6640625" customWidth="1"/>
@@ -2440,1554 +2413,1496 @@
     <row r="1" spans="3:25" x14ac:dyDescent="0.2">
       <c r="G1"/>
     </row>
-    <row r="2" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G2"/>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+    </row>
+    <row r="3" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G3"/>
+      <c r="L3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-    </row>
-    <row r="3" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="G3"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="Q3" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="38" t="s">
-        <v>121</v>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="Q3" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="3:25" x14ac:dyDescent="0.2">
       <c r="G4"/>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>135</v>
+      <c r="Q4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.2">
       <c r="G5"/>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="41" t="s">
+      <c r="O5" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="39"/>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.2">
       <c r="G6"/>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q6" s="37" t="s">
+      <c r="O6" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="39" t="s">
-        <v>118</v>
+      <c r="R6" s="15" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="3:25" x14ac:dyDescent="0.2">
       <c r="G7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="2" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q7" s="37" t="s">
+      <c r="O7" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="39" t="s">
+      <c r="R7" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:25" x14ac:dyDescent="0.2">
       <c r="G8"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="2" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="F9" s="10"/>
+      <c r="G9"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G10"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11"/>
+      <c r="I11" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="O11" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="31"/>
+      <c r="V11" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C12" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12"/>
+      <c r="I12" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13"/>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="V13" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="X13" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y13" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14"/>
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="V14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15"/>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="X15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y15" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16"/>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="X16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y16" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17"/>
+      <c r="I17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="V17" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W17" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="X17" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y17" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18"/>
+      <c r="I18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="V18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="X18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y18" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19"/>
+      <c r="I19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="O19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="V19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="X19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y19" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="F9" s="25"/>
-      <c r="G9"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="G10"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C11" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11"/>
-      <c r="I11" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="V11" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-    </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12"/>
-      <c r="I12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="E20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20"/>
+      <c r="I20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13"/>
-      <c r="I13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="L20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="O20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="O13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2"/>
-      <c r="V13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="W13" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="X13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y13" s="19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14"/>
-      <c r="I14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="O14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="S14" s="2"/>
-      <c r="V14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15"/>
-      <c r="I15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="V15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W15" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="X15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y15" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16"/>
-      <c r="I16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y16" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C17" s="2" t="s">
+      <c r="R20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="V20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17"/>
-      <c r="I17" s="2" t="s">
+      <c r="W20" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="X20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y20" s="13"/>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C21" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21"/>
+      <c r="I21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="O17" s="2" t="s">
+      <c r="J21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="O21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S17" s="2"/>
-      <c r="V17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="W17" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="X17" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y17" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18"/>
-      <c r="I18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="O18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="S18" s="2"/>
-      <c r="V18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19"/>
-      <c r="I19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="O19" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="R19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="S19" s="2"/>
-      <c r="V19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20"/>
-      <c r="I20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="O20" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q20" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="R20" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="S20" s="2"/>
-      <c r="V20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="P21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="V21" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21"/>
-      <c r="I21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="2" t="s">
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="G22"/>
+      <c r="I22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="O21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q21" s="2" t="s">
+      <c r="M22" s="1"/>
+      <c r="O22" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="V21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y21" s="2"/>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22"/>
-      <c r="I22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="O22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S22" s="2"/>
-      <c r="V22" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="S22" s="1"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="G23"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+    </row>
+    <row r="24" spans="3:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G24"/>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G25"/>
-      <c r="H25" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="O25" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="22"/>
+      <c r="H25" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="O25" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="31"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="G26"/>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K26" s="5" t="s">
+      <c r="O26" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q26" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="R26" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O26" s="4" t="s">
+      <c r="S26" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="T26" s="40" t="s">
         <v>61</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="G27"/>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O27" s="2" t="s">
+      <c r="I27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>22</v>
+      <c r="P27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="T27" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="G28"/>
-      <c r="H28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>39</v>
+      <c r="H28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="T28" s="18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="G29"/>
-      <c r="H29" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S29" s="2">
+      <c r="H29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S29" s="1">
         <v>20</v>
       </c>
-      <c r="T29" s="2" t="s">
-        <v>68</v>
+      <c r="T29" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="G30"/>
-      <c r="H30" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L30" s="2">
+      <c r="H30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="1">
         <v>20</v>
       </c>
-      <c r="M30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>67</v>
+      <c r="M30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="G31"/>
-      <c r="H31" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31" s="2"/>
+      <c r="H31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="1"/>
       <c r="L31" t="s">
-        <v>118</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R31" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R31" s="1"/>
       <c r="S31" t="s">
-        <v>118</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>54</v>
+        <v>93</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="G32"/>
-      <c r="H32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="O32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="H32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="O32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G33"/>
-      <c r="H33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="O33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="M33" s="1"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="31"/>
       <c r="G34"/>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="31"/>
+      <c r="O34" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="31"/>
+      <c r="V34" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="31"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A35" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="M35" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="O35" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="P35" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="R35" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="S35" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="T35" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="V35" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="W35" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="X35" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y35" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z35" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA35" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="13">
+        <v>99</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S36" s="1">
+        <v>20</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="V36" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y36" s="13">
+        <v>99</v>
+      </c>
+      <c r="Z36" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA36" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13">
+        <v>10</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S37" s="24">
+        <v>20</v>
+      </c>
+      <c r="T37" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="V37" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="25">
+        <v>10</v>
+      </c>
+      <c r="AA37" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="13">
+        <v>10</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R38" s="12"/>
+      <c r="S38" s="13">
+        <v>10</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="V38" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA38" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39"/>
+      <c r="H39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" t="s">
+        <v>93</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R39" s="1"/>
+      <c r="S39" t="s">
+        <v>93</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="G40"/>
+      <c r="H40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="O40" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="O34" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="V34" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="V35" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="W35" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="X35" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y35" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z35" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA35" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="29">
-        <v>99</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36"/>
-      <c r="H36" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S36" s="2">
-        <v>20</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="V36" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y36" s="29">
-        <v>99</v>
-      </c>
-      <c r="Z36" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA36" s="29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29">
-        <v>10</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37"/>
-      <c r="H37" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L37" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="M37" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S37" s="28">
-        <v>20</v>
-      </c>
-      <c r="T37" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="V37" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29">
-        <v>10</v>
-      </c>
-      <c r="AA37" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G38"/>
-      <c r="H38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K38" s="27"/>
-      <c r="L38" s="29">
-        <v>10</v>
-      </c>
-      <c r="M38" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R38" s="27"/>
-      <c r="S38" s="29">
-        <v>10</v>
-      </c>
-      <c r="T38" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="V38" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA38" s="29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39"/>
-      <c r="H39" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K39" s="2"/>
-      <c r="L39" t="s">
-        <v>118</v>
-      </c>
-      <c r="M39" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R39" s="2"/>
-      <c r="S39" t="s">
-        <v>118</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V39" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="16"/>
-      <c r="AA39" s="16"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40"/>
-      <c r="H40" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="O40" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="V40" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C43" s="33" t="s">
+    <row r="43" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="35"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="45"/>
       <c r="G43"/>
-      <c r="J43" s="33" t="s">
+      <c r="J43" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="35"/>
-      <c r="O43" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="35"/>
-      <c r="V43" s="33" t="s">
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="45"/>
+      <c r="O43" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="45"/>
+      <c r="V43" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="35"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="31"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="15" t="s">
-        <v>79</v>
+      <c r="F44" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="G44"/>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K44" s="15" t="s">
+      <c r="K44" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L44" s="15" t="s">
+      <c r="L44" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="O44" s="15" t="s">
+      <c r="M44" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O44" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="P44" s="15" t="s">
+      <c r="P44" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Q44" s="15" t="s">
+      <c r="Q44" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="V44" s="15" t="s">
+      <c r="R44" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="V44" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="W44" s="15" t="s">
+      <c r="W44" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="X44" s="15" t="s">
+      <c r="X44" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Y44" s="15" t="s">
-        <v>79</v>
+      <c r="Y44" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>30</v>
+      <c r="D45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G45"/>
-      <c r="J45" s="2" t="s">
+      <c r="J45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O45" s="2" t="s">
+      <c r="K45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V45" s="2" t="s">
+      <c r="P45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y45" s="2" t="s">
-        <v>76</v>
+      <c r="W45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
@@ -4036,7 +3951,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="L29" twoDigitTextYear="1"/>
+    <ignoredError sqref="L27:L29" twoDigitTextYear="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
